--- a/biology/Médecine/Patrick_Bouet/Patrick_Bouet.xlsx
+++ b/biology/Médecine/Patrick_Bouet/Patrick_Bouet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Bouet, né le 18 août 1955 à Saumur, est un médecin français. Il était président du Conseil national de l'Ordre des médecins depuis le 27 juin 2013[1] et ce jusqu'au 22 juin 2022, soit près de 9 ans après son entrée en fonction comme président[2],  à présent, c'est le Dr François Arnault[3] qui occupe ce poste. Il est le premier médecin généraliste à exercer cette fonction[1]. Il est également le premier médecin généraliste à avoir été élu à l'Académie nationale de médecine, le 26 septembre 2017[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Bouet, né le 18 août 1955 à Saumur, est un médecin français. Il était président du Conseil national de l'Ordre des médecins depuis le 27 juin 2013 et ce jusqu'au 22 juin 2022, soit près de 9 ans après son entrée en fonction comme président,  à présent, c'est le Dr François Arnault qui occupe ce poste. Il est le premier médecin généraliste à exercer cette fonction. Il est également le premier médecin généraliste à avoir été élu à l'Académie nationale de médecine, le 26 septembre 2017.
 </t>
         </is>
       </c>
@@ -513,34 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et famille
-Né sur les bords de la Loire à Saumur, Patrick Bouet grandit à Bondy en Seine-Saint-Denis. Très attaché depuis son enfance à ce département, Patrick Bouet y exerce en tant que médecin généraliste durant toute sa carrière et encore aujourd’hui. 
+          <t>Enfance et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né sur les bords de la Loire à Saumur, Patrick Bouet grandit à Bondy en Seine-Saint-Denis. Très attaché depuis son enfance à ce département, Patrick Bouet y exerce en tant que médecin généraliste durant toute sa carrière et encore aujourd’hui. 
 Son père était militaire dans la marine nationale, il a combattu lors de la Guerre d'Indochine. Sa mère était pupille de la Nation.
 Son grand-père maternel a été déporté politique et est mort à Auschwitz en 1942 (Convoi des 45 000).
 Patrick Bouet est marié et a deux enfants.
-Études
-Après des études primaires et secondaires à Bondy, au lycée Jean Renoir, il s’inscrit à la faculté de médecine d’Angers en 1974. Il poursuit ses études à Paris de 1979 à 1983 à la Faculté de médecine Saint-Antoine. À partir de 1980, il devient FFI (faisant fonction d'interne) à l’hôpital du Raincy- Montfermeil (Seine-Saint-Denis), où il restera trois ans. 
-Il reçoit en 1983 la médaille de bronze de thèse pour ses travaux de fin d’études à la faculté de Saint-Antoine. Il a suivi les cours du premier diplôme universitaire de gériatrie en 1984.
-Carrière professionnelle
-En 1984, Patrick Bouet commence sa carrière de médecin généraliste au sein d’un cabinet de médecine générale à Villemomble en Seine-Saint-Denis. En parallèle, il occupe un poste de praticien attaché de gériatrie à l’hôpital Valère-Lefèbvre du Raincy et médecin au Centre médico-Social Marcel Hanra à Villemomble. Il exerce depuis maintenant plus de 30 ans dans cette ville[5].
-Entre 1993 et 2000, il enseigne dans le département de médecine générale de la faculté Léonard-de-Vinci de Bobigny.
-En 2008, il est qualifié spécialiste en médecine générale. 
-Carrière ordinale
-Patrick Bouet devient conseiller départemental de l’Ordre des médecins de Seine-Saint-Denis en 1989[6]. Il sera élu à la présidence de ce conseil départemental en 1995[6]. 
-En 2003, il quitte ses fonctions de président du conseil départemental et devient conseiller de l’Ordre national des médecins pour les départements de la Seine-Saint-Denis et du Val-d’Oise[7]. Il occupe toujours aujourd’hui cette fonction mais il est élu uniquement par le département de la Seine-Saint-Denis depuis 2009.
-En 2005, il devient secrétaire général adjoint du CNOM, il exercera cette fonction durant deux ans. 
-Le 27 juin 2013, Patrick Bouet devient après son élection à la tête de l’Ordre national, le premier médecin généraliste à exercer cette fonction. Il succède à Michel Legmann[1].
-En parallèle de son mandat, Patrick Bouet continue de consulter en cabinet de groupe en Seine-Saint-Denis[6].
-Le 26 septembre 2017, il est élu membre correspondant dans la 4e division de l’Académie nationale de médecine, section santé publique. Il est le premier médecin généraliste à entrer dans cette institution[4].
-Il quitte son poste le 22 juin.
-Engagements syndical
-En 1983, Patrick Bouet s’inscrit au SNJMG (Syndicat national des jeunes médecins généralistes).
-Il devient membre de la Fédération des médecins de France en 1984 et quatre ans plus tard, il est élu président départemental (Seine-Saint-Denis) de FMF-généraliste.
-À partir de 1993, il préside le syndicat tri appartenant CSMF, FMF et SML Union 93 en Seine-Saint Denis. Il exercera cette fonction jusqu’en 1995.
-Engagement associatif
-Patrick Bouet a été engagé dans la vie associative en tant que conseiller médical auprès d’associations et de structures humanitaires nationales.
-Carrière juridique
-Patrick Bouet fut juge assesseur au tribunal des pensions de Bobigny de 1992 à 1994 puis juge assesseur au TASS de Bobigny de 1994 à 2000.
 </t>
         </is>
       </c>
@@ -566,19 +560,289 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études primaires et secondaires à Bondy, au lycée Jean Renoir, il s’inscrit à la faculté de médecine d’Angers en 1974. Il poursuit ses études à Paris de 1979 à 1983 à la Faculté de médecine Saint-Antoine. À partir de 1980, il devient FFI (faisant fonction d'interne) à l’hôpital du Raincy- Montfermeil (Seine-Saint-Denis), où il restera trois ans. 
+Il reçoit en 1983 la médaille de bronze de thèse pour ses travaux de fin d’études à la faculté de Saint-Antoine. Il a suivi les cours du premier diplôme universitaire de gériatrie en 1984.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1984, Patrick Bouet commence sa carrière de médecin généraliste au sein d’un cabinet de médecine générale à Villemomble en Seine-Saint-Denis. En parallèle, il occupe un poste de praticien attaché de gériatrie à l’hôpital Valère-Lefèbvre du Raincy et médecin au Centre médico-Social Marcel Hanra à Villemomble. Il exerce depuis maintenant plus de 30 ans dans cette ville.
+Entre 1993 et 2000, il enseigne dans le département de médecine générale de la faculté Léonard-de-Vinci de Bobigny.
+En 2008, il est qualifié spécialiste en médecine générale. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière ordinale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Bouet devient conseiller départemental de l’Ordre des médecins de Seine-Saint-Denis en 1989. Il sera élu à la présidence de ce conseil départemental en 1995. 
+En 2003, il quitte ses fonctions de président du conseil départemental et devient conseiller de l’Ordre national des médecins pour les départements de la Seine-Saint-Denis et du Val-d’Oise. Il occupe toujours aujourd’hui cette fonction mais il est élu uniquement par le département de la Seine-Saint-Denis depuis 2009.
+En 2005, il devient secrétaire général adjoint du CNOM, il exercera cette fonction durant deux ans. 
+Le 27 juin 2013, Patrick Bouet devient après son élection à la tête de l’Ordre national, le premier médecin généraliste à exercer cette fonction. Il succède à Michel Legmann.
+En parallèle de son mandat, Patrick Bouet continue de consulter en cabinet de groupe en Seine-Saint-Denis.
+Le 26 septembre 2017, il est élu membre correspondant dans la 4e division de l’Académie nationale de médecine, section santé publique. Il est le premier médecin généraliste à entrer dans cette institution.
+Il quitte son poste le 22 juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Engagements syndical</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, Patrick Bouet s’inscrit au SNJMG (Syndicat national des jeunes médecins généralistes).
+Il devient membre de la Fédération des médecins de France en 1984 et quatre ans plus tard, il est élu président départemental (Seine-Saint-Denis) de FMF-généraliste.
+À partir de 1993, il préside le syndicat tri appartenant CSMF, FMF et SML Union 93 en Seine-Saint Denis. Il exercera cette fonction jusqu’en 1995.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Engagement associatif</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Bouet a été engagé dans la vie associative en tant que conseiller médical auprès d’associations et de structures humanitaires nationales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Carrière juridique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Bouet fut juge assesseur au tribunal des pensions de Bobigny de 1992 à 1994 puis juge assesseur au TASS de Bobigny de 1994 à 2000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Président de l’Ordre national des médecins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élu en juin 2013 à la présidence du Conseil national de l'Ordre des médecins, il est « plutôt classé à gauche »[1]. Dès sa prise de fonction, il a rappelé dans ses discours sa volonté de moderniser l’institution et de la replacer au cœur du débat de santé. 
-Il a aussi affiché sa volonté de redonner toute la place aux médecins au cœur d’une société en perte de confiance[6].
-Il a notamment évoqué ces objectifs en octobre 2014 à l’occasion du congrès du CNOM en présence de François Hollande et de Marisol Touraine[8]. 
-Entre 2014 et 2015, Patrick Bouet, au nom du CNOM, s’est exprimé à de nombreuses reprises sur le projet de loi santé, en alertant notamment sur le risque d’une médecine administrée et en proposant  plusieurs concertations et réécritures à Marisol Touraine[9],[10].
-Dans le cadre du débat sur la proposition de loi Claeys-Leonetti sur la fin de vie, Patrick Bouet, au nom de l'Ordre des médecins, s'est opposé à la légalisation de l’euthanasie, en préconisant une sédation terminale profonde et continue[11],[12].
-Le 2 mai 2018, Patrick Bouet rompt une nouvelle fois la tradition de réserve de son institution en publiant un livre intitulé « Santé : explosion programmée », dans lequel il tire la sonnette d’alarme sur l’état du système de santé français, et propose des solutions. Il appelle notamment à une réforme de la formation des médecins, à une meilleure coopération entre les professionnels de santé, à une nouvelle organisation du système hospitalier et à la construction de projets de santé dans les territoires[13],[14].
-Mise en cause
-Le 22 décembre 2020, Didier Raoult porte plainte pour harcèlement contre Patrick Bouet[15].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élu en juin 2013 à la présidence du Conseil national de l'Ordre des médecins, il est « plutôt classé à gauche ». Dès sa prise de fonction, il a rappelé dans ses discours sa volonté de moderniser l’institution et de la replacer au cœur du débat de santé. 
+Il a aussi affiché sa volonté de redonner toute la place aux médecins au cœur d’une société en perte de confiance.
+Il a notamment évoqué ces objectifs en octobre 2014 à l’occasion du congrès du CNOM en présence de François Hollande et de Marisol Touraine. 
+Entre 2014 et 2015, Patrick Bouet, au nom du CNOM, s’est exprimé à de nombreuses reprises sur le projet de loi santé, en alertant notamment sur le risque d’une médecine administrée et en proposant  plusieurs concertations et réécritures à Marisol Touraine,.
+Dans le cadre du débat sur la proposition de loi Claeys-Leonetti sur la fin de vie, Patrick Bouet, au nom de l'Ordre des médecins, s'est opposé à la légalisation de l’euthanasie, en préconisant une sédation terminale profonde et continue,.
+Le 2 mai 2018, Patrick Bouet rompt une nouvelle fois la tradition de réserve de son institution en publiant un livre intitulé « Santé : explosion programmée », dans lequel il tire la sonnette d’alarme sur l’état du système de santé français, et propose des solutions. Il appelle notamment à une réforme de la formation des médecins, à une meilleure coopération entre les professionnels de santé, à une nouvelle organisation du système hospitalier et à la construction de projets de santé dans les territoires,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bouet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Président de l’Ordre national des médecins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mise en cause</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 décembre 2020, Didier Raoult porte plainte pour harcèlement contre Patrick Bouet.
 </t>
         </is>
       </c>
